--- a/source_plates/221004_arpae_buffers.xlsx
+++ b/source_plates/221004_arpae_buffers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers1/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7D6C50-3F50-4ACA-8E81-63F880F2F0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E7195C-B045-334F-B1FD-B0FCCBEF9BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="1500" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,8 +159,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,7 +175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,7 +229,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,16 +532,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="21.140625" customWidth="1"/>
+    <col min="1" max="5" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -575,7 +575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -609,7 +609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -626,7 +626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -643,7 +643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="D7" s="3">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="E7">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -671,13 +671,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="3">
-        <v>23323.919000000002</v>
+        <v>932.95676000000003</v>
       </c>
       <c r="E8">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -688,13 +688,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -711,7 +711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -728,7 +728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -739,13 +739,13 @@
         <v>21</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -756,7 +756,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>65</v>

--- a/source_plates/221004_arpae_buffers.xlsx
+++ b/source_plates/221004_arpae_buffers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E7195C-B045-334F-B1FD-B0FCCBEF9BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543ACCA-A122-493C-ADDD-5976EE2B8026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1500" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Item</t>
   </si>
@@ -98,9 +98,6 @@
     <t>G1</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -119,12 +116,6 @@
     <t>A1,A2</t>
   </si>
   <si>
-    <t>H1,H2,H3,H4,H5</t>
-  </si>
-  <si>
-    <t>65,65,65,65,65</t>
-  </si>
-  <si>
     <t>C1,C2,C3,C4</t>
   </si>
   <si>
@@ -132,6 +123,15 @@
   </si>
   <si>
     <t>J1,J2</t>
+  </si>
+  <si>
+    <t>65,65,65</t>
+  </si>
+  <si>
+    <t>K1,K2,K3</t>
+  </si>
+  <si>
+    <t>H1,H2</t>
   </si>
 </sst>
 </file>
@@ -533,15 +533,15 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="21.1640625" customWidth="1"/>
+    <col min="1" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>40.950000000000003</v>
@@ -575,7 +575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>50</v>
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -600,16 +600,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -626,7 +626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -643,7 +643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -660,7 +660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -677,7 +677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -685,16 +685,16 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3">
         <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -702,7 +702,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -711,7 +711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -719,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3">
         <v>50</v>
@@ -728,7 +728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -736,24 +736,24 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3">
         <v>25</v>
       </c>
-      <c r="E12">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3">
         <v>25</v>

--- a/source_plates/221004_arpae_buffers.xlsx
+++ b/source_plates/221004_arpae_buffers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543ACCA-A122-493C-ADDD-5976EE2B8026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97049A-F5DA-44EC-9703-FDCBD302FCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Item</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Malate</t>
   </si>
   <si>
-    <t>65,65,65,65</t>
-  </si>
-  <si>
     <t>I1,I2</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>A1,A2</t>
   </si>
   <si>
-    <t>C1,C2,C3,C4</t>
-  </si>
-  <si>
     <t>B1,B2</t>
   </si>
   <si>
@@ -132,6 +126,9 @@
   </si>
   <si>
     <t>H1,H2</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -533,7 +530,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>40.950000000000003</v>
@@ -583,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3">
         <v>50</v>
@@ -600,13 +597,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -685,7 +682,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3">
         <v>250</v>
@@ -702,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -719,7 +716,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3">
         <v>50</v>
@@ -736,13 +733,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">

--- a/source_plates/221004_arpae_buffers.xlsx
+++ b/source_plates/221004_arpae_buffers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97049A-F5DA-44EC-9703-FDCBD302FCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE956CA-B1F2-4294-AE2F-E48894E31ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Item</t>
   </si>
@@ -89,9 +89,6 @@
     <t>KOH</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>C1</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>40.950000000000003</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
         <v>50</v>
@@ -597,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -614,13 +614,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>200.5</v>
-      </c>
-      <c r="E5">
-        <v>65</v>
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -648,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3">
         <v>250</v>
@@ -665,7 +665,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3">
         <v>932.95676000000003</v>
@@ -682,7 +682,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3">
         <v>250</v>
@@ -699,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -716,7 +716,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3">
         <v>50</v>
@@ -733,24 +733,24 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3">
         <v>25</v>
